--- a/biology/Botanique/Jokipuisto/Jokipuisto.xlsx
+++ b/biology/Botanique/Jokipuisto/Jokipuisto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc du fleuve (en finnois : Jokipuisto) est un parc de la ville de Kotka en Finlande[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc du fleuve (en finnois : Jokipuisto) est un parc de la ville de Kotka en Finlande,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jokipuisto est situé à l'extrémité sud du bras Korkeakoskenhaara du fleuve Kymijoki.
 Il est bordé par la rue Urheilukatu, la rue Kyminlinnantie et par le parc sportif de Karhula.
@@ -522,7 +536,7 @@
 Au niveau supérieur, il y a un bassin d'un diamètre de huit mètres, dans lequel l'eau est pompée du  Kymijoki. 
 Au milieu de la piscine se trouve la sculpture en acier de sept mètres de haut d'Antti Maasalo, Alkulahtei, qui a été dévoilée lors de la cérémonie d'ouverture du parc. 
 Du niveau supérieur, l'eau s'écoule dans des ruisseaux à travers deux étangs jusqu'au fleuve. 
-Le plus petit des étangs a un diamètre de 20 mètres et le plus grand de 55 mètres[3].
+Le plus petit des étangs a un diamètre de 20 mètres et le plus grand de 55 mètres.
 En 2014, la sculpture Tukinuittaja d'Emil Wikström a été érigée dans le parc.
 </t>
         </is>
@@ -552,10 +566,12 @@
           <t>Prix et reconnaissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jokipuisto a reçu le Prix de la structure environnementale de l'année 2015[4].
-Jokipuisto a reçu le Green Flag Award (en) en 2019, 2020 et 2021[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jokipuisto a reçu le Prix de la structure environnementale de l'année 2015.
+Jokipuisto a reçu le Green Flag Award (en) en 2019, 2020 et 2021.
 </t>
         </is>
       </c>
